--- a/example_data/EMA/label_corrected/defitelio-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/defitelio-epar-product-information_en.xlsx
@@ -2428,7 +2428,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>populations - adult || populations - pediatric</t>
+          <t>populations - pediatric || populations - adult</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
